--- a/XLFile/Amazon_Details.xlsx
+++ b/XLFile/Amazon_Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankur/eclipse-workspace/AmazonApp_Automation_Android/XLFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444B543D-712A-E04A-97A1-DE721E463586}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F144AE-1B3A-A343-8A00-7C0106BC4557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,7 +362,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
